--- a/rodier-finding-llama3.2-bert-scores.xlsx
+++ b/rodier-finding-llama3.2-bert-scores.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>correct_answer</t>
-  </si>
-  <si>
-    <t>llm_answer</t>
+    <t>DOCUMENT</t>
+  </si>
+  <si>
+    <t>QUESTION</t>
+  </si>
+  <si>
+    <t>CORRECT_ANSWER</t>
+  </si>
+  <si>
+    <t>LLM_ANSWER</t>
   </si>
   <si>
     <t>BERT_PRECISION</t>
@@ -37,7 +37,7 @@
     <t>BERT_F1</t>
   </si>
   <si>
-    <t>rodier-finding-llama3.2</t>
+    <t>Rodier-Finding</t>
   </si>
   <si>
     <t>Who was the deceased?</t>
@@ -124,53 +124,59 @@
     <t xml:space="preserve">Not applicable in this case; the death occurred during a recreational activity at sea, not under institutional supervision or care </t>
   </si>
   <si>
-    <t>The deceased person was Frank Edward Rodier.</t>
+    <t>The deceased person was Frank Edward RODIER.</t>
   </si>
   <si>
     <t>The death occurred on November 25, 1975.</t>
   </si>
   <si>
-    <t>The death occurred in the waters of the Indian Ocean off Quobba Station near Red Bluff, Carnarvon.</t>
-  </si>
-  <si>
-    <t>Based on the provided context information, the coroner cannot determine the exact cause of Frank Rodier's death with certainty, as there is a possibility that injuries from the rocks may have contributed to his death. Therefore, the cause of death remains unascertained.</t>
-  </si>
-  <si>
-    <t>The presiding coroner was Sarah Helen Linton, Deputy State Coroner.</t>
-  </si>
-  <si>
-    <t>The coroner is satisfied that Frank Rodier died on 25th August 1975 after being washed off rocks while fishing with friends. However, the cause of his death cannot be determined beyond a doubt, and it is possible that injuries from the rocks contributed to his death. The manner of death is considered an accident.</t>
-  </si>
-  <si>
-    <t>Based on the provided context information, it is mentioned that Frank had some slight impairments related to speech. This appears to be the only specific mention of any medical condition in his background. There is no further information about other potential medical or mental health issues.</t>
-  </si>
-  <si>
-    <t>According to the provided context, the following individuals testified or assisted in the inquest:
+    <t>Based on the provided context information, it is stated that the death of Frank Rodier occurred in the waters of the Indian Ocean off Quobba Station near Red Bluff, Carnarvon.</t>
+  </si>
+  <si>
+    <t>The cause of death cannot be determined with certainty due to insufficient evidence. However, it is believed that Frank Rodier may have died from injuries sustained from being washed off rocks while fishing, which could have contributed to his death. The manner of death remains unascertained, but it appears he died by accident.</t>
+  </si>
+  <si>
+    <t>The presiding coroner in this case was Deputy State Coroner Sarah Helen Linton.</t>
+  </si>
+  <si>
+    <t>According to the context information, Frank Rodier died in the sea on 25th March 1975 (not 25 1975) after being washed off rocks while fishing with friends. The exact cause of his death cannot be determined beyond reasonable doubt, but it is believed that he may have sustained injuries from the rocks, which could have contributed to his death. However, the manner of death was confirmed as an accident.</t>
+  </si>
+  <si>
+    <t>According to the provided context information, Frank had some slight impairments, specifically related to speech. This is mentioned in the background section of the report as one of the only notable physical or health issues he experienced.</t>
+  </si>
+  <si>
+    <t>According to the context information, the following individuals testified or assisted in the inquest:
 1. Detective Sergeant Ellie Wold from the Homicide Squad Missing Person Team
-2. Senior Constable C Robertson (assisted the Coroner)</t>
-  </si>
-  <si>
-    <t>Based on the provided context, it is unclear if the deceased, Frank, was considered a "person held in care" under the Coroners Act. The information only mentions that there was reasonable cause to suspect that Frank had died and that his death was reportable, but does not provide any details about his circumstances of death or whether he was being held in care at the time of his death.</t>
-  </si>
-  <si>
-    <t>There is no mention of toxicology findings in the provided context information.</t>
-  </si>
-  <si>
-    <t>The Acting State Coroner determined there was reasonable cause to suspect Frank's death and made a direction for the Commissioner of Police to investigate. This investigation is based on information provided by the WA Police in August 2023, indicating that Frank's death was reportable under the Act. As a result, an investigation into his death was triggered.</t>
-  </si>
-  <si>
-    <t>Based on the provided context, it appears that the coroner did not make any specific recommendations for future prevention in this particular case. The information provided only mentions that the coroner made a direction to the Commissioner of Police to investigate the suspected death under the Coroners Act 1996 (WA), but it does not mention any recommendations for prevention.</t>
-  </si>
-  <si>
-    <t>Based on the provided context information, here's the differentiation between the immediate cause of death and contributing factors:
+2. Senior Constable C Robertson (who assisted the Coroner)</t>
+  </si>
+  <si>
+    <t>Based on the provided context information, there is no indication that the deceased was considered a "person held in care" under the Coroners Act. The coroner's decision to investigate the death as a reportable death suggests that the death may have occurred in custody or under circumstances where the coroner's inquiry is required, but it does not explicitly state that the person was held in care.</t>
+  </si>
+  <si>
+    <t>Based on the provided context information, I can only provide a summary of the available data, but without direct access to the report, I cannot confirm specific toxicology findings. 
+However, it is mentioned that there was reasonable cause to suspect that Frank had died and that his death was reportable under the Act, which led to an investigation being conducted by the police.</t>
+  </si>
+  <si>
+    <t>The Acting State Coroner determined that there was reasonable cause to suspect Frank's death was reportable under the Act. As a result, they made a direction for the suspected death to be investigated by the Commissioner of Police. This investigation was prompted by information provided by the WA Police in August 2023.</t>
+  </si>
+  <si>
+    <t>Based on the provided context information, there is no indication that the coroner made any recommendations for future prevention. The decision appears to be focused solely on investigating Frank's death and determining whether it was a reportable death under the Act, with no mention of preventive measures or recommendations.</t>
+  </si>
+  <si>
+    <t>Based on the provided context, here's a differentiation between the immediate cause of death and contributing factors:
 Immediate Cause of Death:
-The manner of death is determined by the Acting State Coroner to be "by way of accident", specifically due to drowning after being washed off rocks while fishing.
+The immediate cause of Frank Rodier's death is likely to be drowning in the sea after being washed off the rocks while fishing. This can be inferred from the fact that he was found dead at the scene and died on August 25, 1975.
 Contributing Factors:
-While the immediate cause of death is related to the accident, the Acting State Coroner notes that Frank's death may have been contributed to by injuries sustained from the rocks. However, it cannot be excluded that the injury caused his death or at least significantly contributed to it.</t>
-  </si>
-  <si>
-    <t>Based on the context information, it appears that the coroner did not explicitly evaluate the adequacy of supervision, treatment, or care provided to Frank. The decision only mentions that there was reasonable cause to suspect that Frank died and that his death should be investigated, but it does not mention an evaluation of the circumstances surrounding his death.
-Therefore, the conclusion is that the coroner's decision did not include an assessment of the adequacy of supervision, treatment, or care provided.</t>
+There are two contributing factors mentioned in the context:
+1. Injuries sustained from the rocks: It is possible that Frank Rodier's death was caused or contributed to by injuries he sustained from the rocks while fishing. Although it is not clear if these injuries were the sole cause of death, they could have played a role in his demise.
+2. Accidental injuries at birth: There is also an indication that Frank Rodier may have had accidental injuries associated with events at the time of his birth, but no further details are provided about their relationship to his death.
+In summary, while drowning is likely the immediate cause of Frank Rodier's death, there could be other contributing factors such as injuries from the rocks and accidents during birth. The exact nature and extent of these contributions remain unclear based on the provided context.</t>
+  </si>
+  <si>
+    <t>Based on the given context information, it appears that the coroner did not explicitly evaluate the adequacy of supervision, treatment, or care provided in this case. However, we can make an inference based on the following:
+* The coroner made a direction for the Commissioner of Police to investigate, as there was reasonable cause to suspect that Frank had died and his death was reportable.
+* There is no mention of any evaluation of the adequacy of supervision, treatment, or care provided prior to Frank's death.
+Therefore, it can be concluded that the coroner did not evaluate the adequacy of supervision, treatment, or care provided in this case.</t>
   </si>
 </sst>
 </file>
@@ -571,13 +577,13 @@
         <v>36</v>
       </c>
       <c r="E2">
-        <v>0.9683643579483032</v>
+        <v>0.9367325305938721</v>
       </c>
       <c r="F2">
-        <v>0.9810482263565063</v>
+        <v>0.9514966607093811</v>
       </c>
       <c r="G2">
-        <v>0.9746650457382202</v>
+        <v>0.9440569281578064</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -617,13 +623,13 @@
         <v>38</v>
       </c>
       <c r="E4">
-        <v>0.9349055886268616</v>
+        <v>0.8831475973129272</v>
       </c>
       <c r="F4">
-        <v>0.9591941237449646</v>
+        <v>0.95506751537323</v>
       </c>
       <c r="G4">
-        <v>0.946894109249115</v>
+        <v>0.9177005887031555</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -640,13 +646,13 @@
         <v>39</v>
       </c>
       <c r="E5">
-        <v>0.8593088984489441</v>
+        <v>0.8592415452003479</v>
       </c>
       <c r="F5">
-        <v>0.8802191615104675</v>
+        <v>0.879115879535675</v>
       </c>
       <c r="G5">
-        <v>0.8696383237838745</v>
+        <v>0.8690651059150696</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -663,13 +669,13 @@
         <v>40</v>
       </c>
       <c r="E6">
-        <v>0.9167923927307129</v>
+        <v>0.8995692729949951</v>
       </c>
       <c r="F6">
-        <v>0.9414401054382324</v>
+        <v>0.9280666708946228</v>
       </c>
       <c r="G6">
-        <v>0.9289527535438538</v>
+        <v>0.9135957956314087</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -686,13 +692,13 @@
         <v>41</v>
       </c>
       <c r="E7">
-        <v>0.8677433729171753</v>
+        <v>0.8582758903503418</v>
       </c>
       <c r="F7">
-        <v>0.8563610911369324</v>
+        <v>0.8652727603912354</v>
       </c>
       <c r="G7">
-        <v>0.8620147109031677</v>
+        <v>0.861760139465332</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -709,13 +715,13 @@
         <v>42</v>
       </c>
       <c r="E8">
-        <v>0.852428138256073</v>
+        <v>0.8489882946014404</v>
       </c>
       <c r="F8">
-        <v>0.8599784970283508</v>
+        <v>0.8589474558830261</v>
       </c>
       <c r="G8">
-        <v>0.8561866879463196</v>
+        <v>0.8539388179779053</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -732,13 +738,13 @@
         <v>43</v>
       </c>
       <c r="E9">
-        <v>0.8571025729179382</v>
+        <v>0.8575494289398193</v>
       </c>
       <c r="F9">
-        <v>0.8909546136856079</v>
+        <v>0.8908788561820984</v>
       </c>
       <c r="G9">
-        <v>0.8737008571624756</v>
+        <v>0.8738964200019836</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -755,13 +761,13 @@
         <v>44</v>
       </c>
       <c r="E10">
-        <v>0.8354621529579163</v>
+        <v>0.8358203172683716</v>
       </c>
       <c r="F10">
-        <v>0.8601720333099365</v>
+        <v>0.8698809146881104</v>
       </c>
       <c r="G10">
-        <v>0.8476370573043823</v>
+        <v>0.8525105118751526</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -778,13 +784,13 @@
         <v>45</v>
       </c>
       <c r="E11">
-        <v>0.8638140559196472</v>
+        <v>0.8277177810668945</v>
       </c>
       <c r="F11">
-        <v>0.8944113850593567</v>
+        <v>0.8851944208145142</v>
       </c>
       <c r="G11">
-        <v>0.8788464665412903</v>
+        <v>0.8554918169975281</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -801,13 +807,13 @@
         <v>46</v>
       </c>
       <c r="E12">
-        <v>0.8375658988952637</v>
+        <v>0.8384833335876465</v>
       </c>
       <c r="F12">
-        <v>0.8302923440933228</v>
+        <v>0.8272956609725952</v>
       </c>
       <c r="G12">
-        <v>0.833913266658783</v>
+        <v>0.8328518867492676</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -824,13 +830,13 @@
         <v>47</v>
       </c>
       <c r="E13">
-        <v>0.8379152417182922</v>
+        <v>0.8503557443618774</v>
       </c>
       <c r="F13">
-        <v>0.8501084446907043</v>
+        <v>0.8515579700469971</v>
       </c>
       <c r="G13">
-        <v>0.8439677953720093</v>
+        <v>0.8509564399719238</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -847,13 +853,13 @@
         <v>48</v>
       </c>
       <c r="E14">
-        <v>0.8261412382125854</v>
+        <v>0.8124254941940308</v>
       </c>
       <c r="F14">
-        <v>0.8445640206336975</v>
+        <v>0.8370692729949951</v>
       </c>
       <c r="G14">
-        <v>0.8352510333061218</v>
+        <v>0.8245632648468018</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -870,13 +876,13 @@
         <v>49</v>
       </c>
       <c r="E15">
-        <v>0.839632511138916</v>
+        <v>0.8265010714530945</v>
       </c>
       <c r="F15">
-        <v>0.8485528826713562</v>
+        <v>0.8523151278495789</v>
       </c>
       <c r="G15">
-        <v>0.8440690636634827</v>
+        <v>0.8392096161842346</v>
       </c>
     </row>
   </sheetData>
